--- a/docs/database/inst.xlsx
+++ b/docs/database/inst.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18525" windowHeight="8490"/>
+    <workbookView windowWidth="24225" windowHeight="12690"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="732" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1037" uniqueCount="335">
   <si>
     <t>PACKAGE</t>
   </si>
@@ -52,163 +52,838 @@
     <t>DETAIL</t>
   </si>
   <si>
+    <t>binb</t>
+  </si>
+  <si>
+    <t>iqss</t>
+  </si>
+  <si>
+    <t>slides</t>
+  </si>
+  <si>
+    <t>pdf</t>
+  </si>
+  <si>
+    <t>Dirk Eddelbuettel et al.</t>
+  </si>
+  <si>
+    <t>[GitHub](https://github.com/eddelbuettel/binb)</t>
+  </si>
+  <si>
+    <t>gif</t>
+  </si>
+  <si>
+    <t>[Download](https://eddelbuettel.github.io/binb/iqss_minimal.pdf)</t>
+  </si>
+  <si>
+    <t>metropolis</t>
+  </si>
+  <si>
+    <t>[Download](https://eddelbuettel.github.io/binb/metropolis_minimal.pdf)</t>
+  </si>
+  <si>
+    <t>monash</t>
+  </si>
+  <si>
+    <t>slides,college</t>
+  </si>
+  <si>
+    <t>[Download](https://eddelbuettel.github.io/binb/monashDemo.pdf)</t>
+  </si>
+  <si>
+    <t>The Monash Business School theme</t>
+  </si>
+  <si>
+    <t>presento</t>
+  </si>
+  <si>
+    <t>[Download](https://eddelbuettel.github.io/binb/presento_minimal.pdf)</t>
+  </si>
+  <si>
     <t>bookdownplus</t>
   </si>
   <si>
+    <t>bicaption</t>
+  </si>
+  <si>
+    <t>book,chinese</t>
+  </si>
+  <si>
+    <t>Changlin Li</t>
+  </si>
+  <si>
+    <t>[GitHub](https://github.com/pzhaonet/bookdownplus)</t>
+  </si>
+  <si>
+    <t>png</t>
+  </si>
+  <si>
+    <t>[Download](https://pzhaonet.github.io/bookdownplus/upload/bicaption/showcase/bicaption-bookdown.pdf)</t>
+  </si>
+  <si>
+    <t>Use bicaption instead of caption in bookdown</t>
+  </si>
+  <si>
     <t>calendar</t>
   </si>
   <si>
     <t>experimental</t>
   </si>
   <si>
-    <t>pdf</t>
-  </si>
-  <si>
     <t>[Peng Zhao](https://pzhao.org)</t>
   </si>
   <si>
-    <t>[GitHub](https://github.com/pzhaonet/bookdownplus)</t>
-  </si>
-  <si>
-    <t>png</t>
+    <t>[Download](https://pzhaonet.github.io/bookdownplus/upload/calendar/showcase/calendar.pdf)</t>
+  </si>
+  <si>
+    <t>Insert monthly or weekly calendar.</t>
   </si>
   <si>
     <t>cchess</t>
   </si>
   <si>
+    <t>[Download](https://pzhaonet.github.io/bookdownplus/upload/cchess/showcase/cchess.pdf)</t>
+  </si>
+  <si>
+    <t>Instert Chinese chess diagrams. (插入中国象棋棋谱.)</t>
+  </si>
+  <si>
     <t>chemistry</t>
   </si>
   <si>
     <t>book</t>
   </si>
   <si>
+    <t>[Download](https://pzhaonet.github.io/bookdownplus/upload/chemistry/showcase/chemistry.pdf)</t>
+  </si>
+  <si>
+    <t>Write a book with chemical molecular formulae and equations.</t>
+  </si>
+  <si>
     <t>chemistry_zh</t>
   </si>
   <si>
+    <t>[Download](https://pzhaonet.github.io/bookdownplus/upload/chemistry_zh/showcase/chemistry_zh.pdf)</t>
+  </si>
+  <si>
+    <t>Write a chemistry book in Chinese. (中文文档插入化学符号.)</t>
+  </si>
+  <si>
     <t>classic</t>
   </si>
   <si>
+    <t>[Download](https://pzhaonet.github.io/bookdownplus/inst2/classic/showcase/thesis_classic.pdf)</t>
+  </si>
+  <si>
+    <t>Classic thesis.</t>
+  </si>
+  <si>
     <t>copernicus</t>
   </si>
   <si>
     <t>article</t>
   </si>
   <si>
+    <t>[Download](https://pzhaonet.github.io/bookdownplus/inst2/copernicus/showcase/copernicus.pdf)</t>
+  </si>
+  <si>
+    <t>Write academic papers of Copernicus journals. Support both the two-columned pdf version and the discussion version.</t>
+  </si>
+  <si>
     <t>crc</t>
   </si>
   <si>
-    <t>cumt_zh</t>
+    <t>[Yihui Xie](https://yihui.org/)</t>
+  </si>
+  <si>
+    <t>[Download](https://pzhaonet.github.io/bookdownplus/inst2/crc/showcase/yihui_crc.pdf)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Writing a book of [Chapman &amp; Hall](https://github.com/yihui/bookdown-crc). </t>
+  </si>
+  <si>
+    <t>cumtb_zh</t>
+  </si>
+  <si>
+    <t>thesis,chinese,college</t>
+  </si>
+  <si>
+    <t>[Xiangyun Huang](https://www.xiangyunhuang.com.cn/)</t>
+  </si>
+  <si>
+    <t>[Download](https://pzhaonet.github.io/bookdownplus/upload/cumtb_zh/showcase/cumtb.pdf)</t>
+  </si>
+  <si>
+    <t>Thesis of China University of Mining and Technology, Beijing. (中国矿业大学（北京）学位论文模板.)</t>
+  </si>
+  <si>
+    <t>demo</t>
+  </si>
+  <si>
+    <t>[Download](https://pzhaonet.github.io/bookdownplus/inst2/demo/showcase/yihui_demo.pdf)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[The original demo book for bookdown](https://github.com/rstudio/bookdown-demo). </t>
+  </si>
+  <si>
+    <t>demo_zh</t>
+  </si>
+  <si>
+    <t>[Download](https://pzhaonet.github.io/bookdownplus/inst2/demo_zh/showcase/yihui_zh.pdf)</t>
+  </si>
+  <si>
+    <t>[The original demo book for bookdown in Chinese](https://github.com/yihui/bookdown-chinese). (官方中文模板。)</t>
+  </si>
+  <si>
+    <t>dnd</t>
+  </si>
+  <si>
+    <t>[Download](https://pzhaonet.github.io/bookdownplus/upload/dnd/showcase/dnd_dev.pdf)</t>
+  </si>
+  <si>
+    <t>I don't know what on earth it is.</t>
+  </si>
+  <si>
+    <t>docsens</t>
+  </si>
+  <si>
+    <t>Are Edvardsen, SKDE</t>
+  </si>
+  <si>
+    <t>[Download](https://pzhaonet.github.io/bookdownplus/inst2/docsens/showcase/docsens.pdf)</t>
+  </si>
+  <si>
+    <t>A template from the book [Lokal lagring og bruk av sensitive data](https://bookdown.org/areedv/docSens/)</t>
+  </si>
+  <si>
+    <t>elegantbook</t>
+  </si>
+  <si>
+    <t>[Download](https://pzhaonet.github.io/bookdownplus/upload/elegantbook/showcase/_main.pdf)</t>
+  </si>
+  <si>
+    <t>Elegant book. Experimental</t>
+  </si>
+  <si>
+    <t>elegantpaper_zh</t>
+  </si>
+  <si>
+    <t>article,chinese</t>
+  </si>
+  <si>
+    <t>[Download](https://pzhaonet.github.io/bookdownplus/upload/elegantpaper_zh/showcase/_main.pdf)</t>
+  </si>
+  <si>
+    <t>Paper in Chinese</t>
+  </si>
+  <si>
+    <t>elsevier</t>
+  </si>
+  <si>
+    <t>[Download](https://pzhaonet.github.io/bookdownplus/inst2/elsevier/showcase/elsevier.pdf)</t>
+  </si>
+  <si>
+    <t>Write academic papers of Elsevier journals.</t>
+  </si>
+  <si>
+    <t>guitar</t>
+  </si>
+  <si>
+    <t>[Download](https://pzhaonet.github.io/bookdownplus/upload/guitar/showcase/guitar.pdf)</t>
+  </si>
+  <si>
+    <t>Write a book with guitar chords.</t>
+  </si>
+  <si>
+    <t>igo</t>
+  </si>
+  <si>
+    <t>[Download](https://pzhaonet.github.io/bookdownplus/upload/igo/showcase/igo.pdf)</t>
+  </si>
+  <si>
+    <t>Insert Go game diagrams.</t>
+  </si>
+  <si>
+    <t>journal</t>
+  </si>
+  <si>
+    <t>[Download](https://pzhaonet.github.io/bookdownplus/inst2/journal/showcase/journal.pdf)</t>
+  </si>
+  <si>
+    <t>Laboratory journal or personal diary.</t>
+  </si>
+  <si>
+    <t>mail</t>
+  </si>
+  <si>
+    <t>letter</t>
+  </si>
+  <si>
+    <t>[Download](https://pzhaonet.github.io/bookdownplus/inst2/mail/showcase/mail.pdf)</t>
+  </si>
+  <si>
+    <t>Write elegant traditional mails. Multiple themes are available.</t>
+  </si>
+  <si>
+    <t>mdpi</t>
+  </si>
+  <si>
+    <t>[Download](https://pzhaonet.github.io/bookdownplus/inst2/mdpi/showcase/mdpi.pdf)</t>
+  </si>
+  <si>
+    <t>Write academic papers in the layout of MDPI journals.</t>
+  </si>
+  <si>
+    <t>mini</t>
+  </si>
+  <si>
+    <t>[Download](https://pzhaonet.github.io/bookdownplus/inst2/mini/showcase/yihui_mini.pdf)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[A mini demo book for bookdown](https://github.com/yihui/bookdown-minimal). </t>
+  </si>
+  <si>
+    <t>musix</t>
+  </si>
+  <si>
+    <t>[Download](https://pzhaonet.github.io/bookdownplus/upload/musix/showcase/musix.pdf)</t>
+  </si>
+  <si>
+    <t>Typesetting music and related stuff.</t>
+  </si>
+  <si>
+    <t>nonpar</t>
+  </si>
+  <si>
+    <t>Eduardo García-Portugués</t>
+  </si>
+  <si>
+    <t>[Download](https://pzhaonet.github.io/bookdownplus/inst2/nonpar/showcase/nonpar.pdf)</t>
+  </si>
+  <si>
+    <t>A book template from the book [A short course on nonparametric curve estimation](https://bookdown.org/egarpor/nonpar-eafit/)</t>
+  </si>
+  <si>
+    <t>nte_zh</t>
+  </si>
+  <si>
+    <t>[Download](https://pzhaonet.github.io/bookdownplus/inst2/nte_zh/showcase/nte_zh.pdf)</t>
+  </si>
+  <si>
+    <t>A template from Nothing to envy, in Chinese. (中文散文模板。)</t>
+  </si>
+  <si>
+    <t>paper_zh</t>
+  </si>
+  <si>
+    <t>[Download](https://pzhaonet.github.io/bookdownplus/inst2/paper_zh/showcase/paper_zh.pdf)</t>
+  </si>
+  <si>
+    <t>Write academic manuscript in Chinese with bilingual titles, author lists, abstracts, and keywords. (中文学术论文模板。支持双语标题、作者、摘要、关键词。)</t>
+  </si>
+  <si>
+    <t>pku_zh</t>
+  </si>
+  <si>
+    <t>[Download](https://pzhaonet.github.io/bookdownplus/inst2/pku_zh/showcase/pku_zh.pdf)</t>
+  </si>
+  <si>
+    <t>Write a thesis of Peking University with R markdown syntax. (北京大学学位论文模板。)</t>
+  </si>
+  <si>
+    <t>poem</t>
+  </si>
+  <si>
+    <t>[Download](https://pzhaonet.github.io/bookdownplus/inst2/poem/showcase/poem.pdf)</t>
+  </si>
+  <si>
+    <t>A poem book.</t>
+  </si>
+  <si>
+    <t>rbasics</t>
+  </si>
+  <si>
+    <t>Chester Ismay, Patrick C. Kennedy</t>
+  </si>
+  <si>
+    <t>[Download](https://pzhaonet.github.io/bookdownplus/inst2/rbasics/showcase/rbasics.pdf)</t>
+  </si>
+  <si>
+    <t>A template from the book [Getting used to R, RStudio, and R Markdown](https://ismayc.github.io/rbasics-book/)</t>
+  </si>
+  <si>
+    <t>skak</t>
+  </si>
+  <si>
+    <t>[Download](https://pzhaonet.github.io/bookdownplus/upload/skak/showcase/skak.pdf)</t>
+  </si>
+  <si>
+    <t>Insert chess diagrams.</t>
+  </si>
+  <si>
+    <t>thesis_zh</t>
+  </si>
+  <si>
+    <t>[Download](https://pzhaonet.github.io/bookdownplus/inst2/thesis_zh/showcase/thesis_zh.pdf)</t>
+  </si>
+  <si>
+    <t>A simple template for thesis in Chinese. (简单的中文学位论文模板。)</t>
+  </si>
+  <si>
+    <t>ubt</t>
+  </si>
+  <si>
+    <t>thesis,college</t>
+  </si>
+  <si>
+    <t>[Download](https://pzhaonet.github.io/bookdownplus/inst2/ubt/showcase/ubt.pdf)</t>
+  </si>
+  <si>
+    <t>Thesis of University of Bayreuth</t>
+  </si>
+  <si>
+    <t>ucas_zh</t>
+  </si>
+  <si>
+    <t>[Download](https://pzhaonet.github.io/bookdownplus/inst2/ucas_zh/showcase/ucas_zh.pdf)</t>
+  </si>
+  <si>
+    <t>Write a thesis of the University of Chinese Academy of Sciences. (中国科学院大学学位论文模板。)</t>
+  </si>
+  <si>
+    <t>zju_zh</t>
+  </si>
+  <si>
+    <t>[Download](https://pzhaonet.github.io/bookdownplus/upload/zju_zh/showcase/zju_zh.pdf)</t>
+  </si>
+  <si>
+    <t>Thesis of Zhejiang Uni., in Chinese. (据说是浙江大学学位论文模板.)</t>
+  </si>
+  <si>
+    <t>drposter</t>
+  </si>
+  <si>
+    <t>poster</t>
+  </si>
+  <si>
+    <t>html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ben Bucior </t>
+  </si>
+  <si>
+    <t>[GitHub](https://github.com/bbucior/drposter)</t>
+  </si>
+  <si>
+    <t>[Download](https://github.com/bbucior/drposter/raw/master/inst/example/poster.pdf)</t>
+  </si>
+  <si>
+    <t>Generate Academic Posters in R Markdown and CSS</t>
+  </si>
+  <si>
+    <t>hrbrthemes</t>
+  </si>
+  <si>
+    <t>ipsum</t>
+  </si>
+  <si>
+    <t>report</t>
+  </si>
+  <si>
+    <t>Bob Rudis</t>
+  </si>
+  <si>
+    <t>[GitHub](https://github.com/hrbrmstr/hrbrthemes)</t>
+  </si>
+  <si>
+    <t>Additional Themes and Theme Components for ‘ggplot2’</t>
+  </si>
+  <si>
+    <t>linl</t>
+  </si>
+  <si>
+    <t>Dirk Eddelbuettel and Aaron Wolen</t>
+  </si>
+  <si>
+    <t>[GitHub](https://github.com/eddelbuettel/linl)</t>
+  </si>
+  <si>
+    <t>markdowntemplates</t>
+  </si>
+  <si>
+    <t>bulma</t>
+  </si>
+  <si>
+    <t>[GitHub](https://github.com/hrbrmstr/markdowntemplates)</t>
+  </si>
+  <si>
+    <t>**bulma** (`output: markdowntemplates::bulma`) uses the [Bulma CSS framework](http://bulma.io/) and has optional `navlink` YAML header elements and also has support for arbitrary footer content &amp; a subset of OpenGraph tags (see the example Rmd) which will be used in header of the generated file.</t>
+  </si>
+  <si>
+    <t>kickstart</t>
+  </si>
+  <si>
+    <t>skeleton</t>
+  </si>
+  <si>
+    <t>**skeleton** (`output: markdowntemplates::skeleton`) or **default** (`output: markdowntemplates::default`) uses the [Skeleton CSS framework](http://getskeleton.com/) and has optional `navlink` YAML header elements and also has support for arbitrary footer content &amp; a subset of OpenGraph tags (see the example Rmd) which will be used in header of the generated file.</t>
+  </si>
+  <si>
+    <t>pagedown</t>
+  </si>
+  <si>
+    <t>html_letter</t>
+  </si>
+  <si>
+    <t>[Yihui Xie](https://yihui.org/) et al.</t>
+  </si>
+  <si>
+    <t>[GitHub](https://github.com/rstudio/pagedown)</t>
+  </si>
+  <si>
+    <t>html_paged</t>
+  </si>
+  <si>
+    <t>html_resume</t>
+  </si>
+  <si>
+    <t>resume</t>
+  </si>
+  <si>
+    <t>jss_paged</t>
+  </si>
+  <si>
+    <t>poster_jacobs</t>
+  </si>
+  <si>
+    <t>poster_relaxed</t>
+  </si>
+  <si>
+    <t>jpg</t>
+  </si>
+  <si>
+    <t>thesis_paged</t>
+  </si>
+  <si>
+    <t>pinp</t>
+  </si>
+  <si>
+    <t>pnas</t>
+  </si>
+  <si>
+    <t>Dirk Eddelbuettel and James Balamuta</t>
+  </si>
+  <si>
+    <t>[GitHub](https://github.com/eddelbuettel/pinp)</t>
+  </si>
+  <si>
+    <t>PNAS Article template</t>
+  </si>
+  <si>
+    <t>prettydoc</t>
+  </si>
+  <si>
+    <t>architect</t>
+  </si>
+  <si>
+    <t>[Yixuan Qiu](https://statr.me/)</t>
+  </si>
+  <si>
+    <t>[GitHub](https://github.com/yixuan/prettydoc)</t>
+  </si>
+  <si>
+    <t>[View](https://prettydoc.statr.me/architect.html)</t>
+  </si>
+  <si>
+    <t>cayman</t>
+  </si>
+  <si>
+    <t>[View](https://prettydoc.statr.me/cayman.html)</t>
+  </si>
+  <si>
+    <t>hpstr</t>
+  </si>
+  <si>
+    <t>[View](https://prettydoc.statr.me/hpstr.html)</t>
+  </si>
+  <si>
+    <t>leonids</t>
+  </si>
+  <si>
+    <t>[View](https://prettydoc.statr.me/leonids.html)</t>
+  </si>
+  <si>
+    <t>tactile</t>
+  </si>
+  <si>
+    <t>[View](https://prettydoc.statr.me/tactile.html)</t>
+  </si>
+  <si>
+    <t>rmarkdown</t>
+  </si>
+  <si>
+    <t>cerulean</t>
+  </si>
+  <si>
+    <t>[JJ Allaire](https://github.com/jjallaire) et al.</t>
+  </si>
+  <si>
+    <t>[GitHub](https://github.com/rstudio/rmarkdown)</t>
+  </si>
+  <si>
+    <t>cosmo</t>
+  </si>
+  <si>
+    <t>default</t>
+  </si>
+  <si>
+    <t>flatly</t>
+  </si>
+  <si>
+    <t>lumen</t>
+  </si>
+  <si>
+    <t>paper</t>
+  </si>
+  <si>
+    <t>readable</t>
+  </si>
+  <si>
+    <t>sandstone</t>
+  </si>
+  <si>
+    <t>simplex</t>
+  </si>
+  <si>
+    <t>spacelab</t>
+  </si>
+  <si>
+    <t>united</t>
+  </si>
+  <si>
+    <t>yeti</t>
+  </si>
+  <si>
+    <t>rmd</t>
+  </si>
+  <si>
+    <t>beamer_xiaoshan</t>
+  </si>
+  <si>
+    <t>slides,chinese</t>
+  </si>
+  <si>
+    <t>[GitHub](https://github.com/pzhaonet/rmd)</t>
+  </si>
+  <si>
+    <t>[Download](https://masr.netlify.app/beamer-pgfornament-han.pdf)</t>
+  </si>
+  <si>
+    <t>rmdformats</t>
+  </si>
+  <si>
+    <t>clean</t>
+  </si>
+  <si>
+    <t>Julien Barnier</t>
+  </si>
+  <si>
+    <t>[GitHub](https://github.com/juba/rmdformats)</t>
+  </si>
+  <si>
+    <t>Simple and clean template with dynamic table of contents, very similar to the one from the great [knitrBootstrap package](https://github.com/jimhester/knitrBootstrap) by Jim Hester.</t>
+  </si>
+  <si>
+    <t>docco</t>
+  </si>
+  <si>
+    <t>Simple template, no table of contents. CSS heavily inspired from the default one of the [docco](https://jashkenas.github.io/docco/) project.</t>
+  </si>
+  <si>
+    <t>material</t>
+  </si>
+  <si>
+    <t>Format taken from the [Material design theme for Bootstrap 3](https://github.com/FezVrasta/bootstrap-material-design). Document is split into pages at each `&lt;h1&gt;` header, and the table of contents allows an animated navigation between these pages (you can use the `cards: false` preamble parameter to disable the splitting and display all the cards at once).</t>
+  </si>
+  <si>
+    <t>readthedown</t>
+  </si>
+  <si>
+    <t>Adapted from the corresponding `readtheorg` theme of the [org-html-themes](https://github.com/fniessen/org-html-themes) project, fully responsive with dynamic table of contents and collapsible navigation.</t>
+  </si>
+  <si>
+    <t>rmdshower</t>
+  </si>
+  <si>
+    <t>shower</t>
+  </si>
+  <si>
+    <t>Vadim Makeev et al.</t>
+  </si>
+  <si>
+    <t>[GitHub](https://github.com/MangoTheCat/rmdshower)</t>
+  </si>
+  <si>
+    <t>[View](http://mangothecat.github.io/rmdshower/skeleton.html)</t>
+  </si>
+  <si>
+    <t>rmdTemplates</t>
+  </si>
+  <si>
+    <t>ms_ecoszstemas</t>
+  </si>
+  <si>
+    <t>docx</t>
+  </si>
+  <si>
+    <t>Francisco Rodriguez-Sanchez</t>
+  </si>
+  <si>
+    <t>[GitHub](https://github.com/Pakillo/rmdTemplates)</t>
+  </si>
+  <si>
+    <t>ms_pdf</t>
+  </si>
+  <si>
+    <t>ms_pdf_boettiger</t>
+  </si>
+  <si>
+    <t>rosr</t>
+  </si>
+  <si>
+    <t>article_svm</t>
+  </si>
+  <si>
+    <t>[GitHub](https://github.com/pzhaonet/rosr)</t>
+  </si>
+  <si>
+    <t>beamer</t>
+  </si>
+  <si>
+    <t>cv_svm</t>
+  </si>
+  <si>
+    <t>letter_moderncv</t>
+  </si>
+  <si>
+    <t>manuscript_svm</t>
+  </si>
+  <si>
+    <t>statement_svm</t>
+  </si>
+  <si>
+    <t>experimental,chinese</t>
+  </si>
+  <si>
+    <t>syllabus_svm</t>
+  </si>
+  <si>
+    <t>thesisdown</t>
   </si>
   <si>
     <t>thesis</t>
   </si>
   <si>
-    <t>cumtb_zh</t>
-  </si>
-  <si>
-    <t>demo</t>
-  </si>
-  <si>
-    <t>demo_zh</t>
-  </si>
-  <si>
-    <t>dnd</t>
-  </si>
-  <si>
-    <t>dnd_dev</t>
-  </si>
-  <si>
-    <t>docsens</t>
-  </si>
-  <si>
-    <t>elsevier</t>
-  </si>
-  <si>
-    <t>guitar</t>
-  </si>
-  <si>
-    <t>igo</t>
-  </si>
-  <si>
-    <t>journal</t>
-  </si>
-  <si>
-    <t>mail</t>
-  </si>
-  <si>
-    <t>letter</t>
-  </si>
-  <si>
-    <t>mdpi</t>
-  </si>
-  <si>
-    <t>mini</t>
-  </si>
-  <si>
-    <t>musix</t>
-  </si>
-  <si>
-    <t>nonpar</t>
-  </si>
-  <si>
-    <t>nte_zh</t>
-  </si>
-  <si>
-    <t>paper_zh</t>
-  </si>
-  <si>
-    <t>pku_zh</t>
-  </si>
-  <si>
-    <t>poem</t>
-  </si>
-  <si>
-    <t>rbasics</t>
-  </si>
-  <si>
-    <t>skak</t>
-  </si>
-  <si>
-    <t>thesis_zh</t>
-  </si>
-  <si>
-    <t>ubt</t>
-  </si>
-  <si>
-    <t>ucas_zh</t>
-  </si>
-  <si>
-    <t>zju_zh</t>
-  </si>
-  <si>
-    <t>rosr</t>
-  </si>
-  <si>
-    <t>article_svm</t>
-  </si>
-  <si>
-    <t>[GitHub](https://github.com/pzhaonet/rosr)</t>
-  </si>
-  <si>
-    <t>beamer</t>
-  </si>
-  <si>
-    <t>slides</t>
-  </si>
-  <si>
-    <t>cv_svm</t>
-  </si>
-  <si>
-    <t>letter_moderncv</t>
-  </si>
-  <si>
-    <t>manuscript_svm</t>
-  </si>
-  <si>
-    <t>statement_svm</t>
-  </si>
-  <si>
-    <t>syllabus_svm</t>
+    <t>Chester Ismay and Nick Solomon</t>
+  </si>
+  <si>
+    <t>[GitHub](https://github.com/ismayc/thesisdown)</t>
+  </si>
+  <si>
+    <t>Work with the Reed College LaTeX template</t>
+  </si>
+  <si>
+    <t>It was originally designed to only work with the Reed College LaTeX template, but has since been adapted to work with many different institutions by many different individuals.</t>
+  </si>
+  <si>
+    <t>tint</t>
+  </si>
+  <si>
+    <t>tintBook</t>
+  </si>
+  <si>
+    <t>Dirk Eddelbuettel and Jonathan Gilligan</t>
+  </si>
+  <si>
+    <t>[GitHub](https://github.com/eddelbuettel/tint)</t>
+  </si>
+  <si>
+    <t>tintHtml</t>
+  </si>
+  <si>
+    <t>[View](https://eddelbuettel.github.io/tint/)</t>
+  </si>
+  <si>
+    <t>tintPdf</t>
+  </si>
+  <si>
+    <t>tufte</t>
+  </si>
+  <si>
+    <t>[Yihui Xie](https://yihui.org/) and JJ Allaire</t>
+  </si>
+  <si>
+    <t>[GitHub](https://github.com/rstudio/tufte)</t>
+  </si>
+  <si>
+    <t>handout</t>
+  </si>
+  <si>
+    <t>[View](https://rstudio.github.io/tufte/)</t>
+  </si>
+  <si>
+    <t>uiucthemes</t>
+  </si>
+  <si>
+    <t>beamer_illinois</t>
+  </si>
+  <si>
+    <t>James Balamuta</t>
+  </si>
+  <si>
+    <t>[GitHub](https://github.com/illinois-r/uiucthemes)</t>
+  </si>
+  <si>
+    <t>Illinois colored header boxes</t>
+  </si>
+  <si>
+    <t>beamer_imetropolis</t>
+  </si>
+  <si>
+    <t>Metropolis Theme with Illinois colors for Beamer.</t>
+  </si>
+  <si>
+    <t>beamer_mil</t>
+  </si>
+  <si>
+    <t>Beamer Market Information Lab (MIL)</t>
+  </si>
+  <si>
+    <t>beamer_orange</t>
+  </si>
+  <si>
+    <t>Minimialist slides with a color preference to orange.</t>
+  </si>
+  <si>
+    <t>html_imetropolis</t>
+  </si>
+  <si>
+    <t>`xaringan`-powered Metropolis Theme for Illinois.</t>
+  </si>
+  <si>
+    <t>xaringan</t>
+  </si>
+  <si>
+    <t>moon_reader</t>
+  </si>
+  <si>
+    <t>[GitHub](https://github.com/yihui/xaringan)</t>
+  </si>
+  <si>
+    <t>[View](https://slides.yihui.org/2017-rmarkdown-UNL-Yihui-Xie.html)</t>
+  </si>
+  <si>
+    <t>Create slideshows with [remark.js](http://remarkjs.com/) through R Markdown.</t>
   </si>
   <si>
     <t>xjtlu</t>
@@ -217,367 +892,136 @@
     <t>flyer</t>
   </si>
   <si>
-    <t>html</t>
+    <t>flyer,college</t>
   </si>
   <si>
     <t>[GitHub](https://github.com/pzhaonet/xjtlu)</t>
   </si>
   <si>
-    <t>jpg</t>
+    <t>[View](https://openr.pzhao.org/flyer/cufe2020/)</t>
+  </si>
+  <si>
+    <t>西交利物浦大学传单</t>
   </si>
   <si>
     <t>html_report</t>
   </si>
   <si>
-    <t>report</t>
-  </si>
-  <si>
-    <t>poster</t>
-  </si>
-  <si>
-    <t>rmd</t>
-  </si>
-  <si>
-    <t>beamer_xiaoshan</t>
-  </si>
-  <si>
-    <t>[Xiangyun Huang](https://www.xiangyunhuang.com.cn/)</t>
-  </si>
-  <si>
-    <t>[GitHub](https://github.com/pzhaonet/rmd)</t>
-  </si>
-  <si>
-    <t>rmarkdown</t>
-  </si>
-  <si>
-    <t>cerulean</t>
-  </si>
-  <si>
-    <t>[JJ Allaire](https://github.com/jjallaire) et al.</t>
-  </si>
-  <si>
-    <t>[GitHub](https://github.com/rstudio/rmarkdown)</t>
-  </si>
-  <si>
-    <t>cosmo</t>
-  </si>
-  <si>
-    <t>default</t>
-  </si>
-  <si>
-    <t>flatly</t>
-  </si>
-  <si>
-    <t>lumen</t>
-  </si>
-  <si>
-    <t>paper</t>
-  </si>
-  <si>
-    <t>readable</t>
-  </si>
-  <si>
-    <t>sandstone</t>
-  </si>
-  <si>
-    <t>simplex</t>
-  </si>
-  <si>
-    <t>spacelab</t>
-  </si>
-  <si>
-    <t>united</t>
-  </si>
-  <si>
-    <t>yeti</t>
-  </si>
-  <si>
-    <t>prettydoc</t>
-  </si>
-  <si>
-    <t>architect</t>
-  </si>
-  <si>
-    <t>[Yixuan Qiu](https://statr.me/)</t>
-  </si>
-  <si>
-    <t>[GitHub](https://github.com/yixuan/prettydoc)</t>
-  </si>
-  <si>
-    <t>[View](https://prettydoc.statr.me/architec.html)</t>
-  </si>
-  <si>
-    <t>cayman</t>
-  </si>
-  <si>
-    <t>[View](https://prettydoc.statr.me/cayman.html)</t>
-  </si>
-  <si>
-    <t>hpstr</t>
-  </si>
-  <si>
-    <t>[View](https://prettydoc.statr.me/hpstr.html)</t>
-  </si>
-  <si>
-    <t>leonids</t>
-  </si>
-  <si>
-    <t>[View](https://prettydoc.statr.me/leonids.html)</t>
-  </si>
-  <si>
-    <t>tactile</t>
-  </si>
-  <si>
-    <t>[View](https://prettydoc.statr.me/tactile.html)</t>
-  </si>
-  <si>
-    <t>rmdshower</t>
-  </si>
-  <si>
-    <t>shower</t>
-  </si>
-  <si>
-    <t>Vadim Makeev et al.</t>
-  </si>
-  <si>
-    <t>[GitHub]https://github.com/MangoTheCat/rmdshower)</t>
-  </si>
-  <si>
-    <t>[View](http://mangothecat.github.io/rmdshower/skeleton.html)</t>
-  </si>
-  <si>
-    <t>rmdformats</t>
-  </si>
-  <si>
-    <t>clean</t>
-  </si>
-  <si>
-    <t>Julien Barnier</t>
-  </si>
-  <si>
-    <t>[GitHub](https://github.com/juba/rmdformats)</t>
-  </si>
-  <si>
-    <t>docco</t>
-  </si>
-  <si>
-    <t>material</t>
-  </si>
-  <si>
-    <t>readthedown</t>
-  </si>
-  <si>
-    <t>hrbrthemes</t>
-  </si>
-  <si>
-    <t>ipsum</t>
-  </si>
-  <si>
-    <t>Bob Rudis</t>
-  </si>
-  <si>
-    <t>[GitHub](https://github.com/hrbrmstr/hrbrthemes)</t>
-  </si>
-  <si>
-    <t>tint</t>
-  </si>
-  <si>
-    <t>tintHtml</t>
-  </si>
-  <si>
-    <t>Dirk Eddelbuettel and Jonathan Gilligan</t>
-  </si>
-  <si>
-    <t>[GitHub](https://github.com/eddelbuettel/tint)</t>
-  </si>
-  <si>
-    <t>tintBook</t>
-  </si>
-  <si>
-    <t>tintPdf</t>
-  </si>
-  <si>
-    <t>tufte</t>
-  </si>
-  <si>
-    <t>[Yihui Xie](https://yihui.org/) and JJ Allaire</t>
-  </si>
-  <si>
-    <t>[GitHub](https://github.com/rstudio/tufte)</t>
-  </si>
-  <si>
-    <t>handout</t>
-  </si>
-  <si>
-    <t>[View](https://rstudio.github.io/tufte/)</t>
-  </si>
-  <si>
-    <t>binb</t>
-  </si>
-  <si>
-    <t>iqss</t>
-  </si>
-  <si>
-    <t>Dirk Eddelbuettel et al.</t>
-  </si>
-  <si>
-    <t>[GitHub](https://github.com/eddelbuettel/binb)</t>
-  </si>
-  <si>
-    <t>gif</t>
-  </si>
-  <si>
-    <t>metropolis</t>
-  </si>
-  <si>
-    <t>monash</t>
-  </si>
-  <si>
-    <t>presento</t>
-  </si>
-  <si>
-    <t>linl</t>
-  </si>
-  <si>
-    <t>Dirk Eddelbuettel and Aaron Wolen</t>
-  </si>
-  <si>
-    <t>[GitHub](https://github.com/eddelbuettel/linl)</t>
-  </si>
-  <si>
-    <t>pinp</t>
-  </si>
-  <si>
-    <t>pnas</t>
-  </si>
-  <si>
-    <t>Dirk Eddelbuettel and James Balamuta</t>
-  </si>
-  <si>
-    <t>[GitHub](https://github.com/eddelbuettel/pinp)</t>
-  </si>
-  <si>
-    <t>uiucthemes</t>
-  </si>
-  <si>
-    <t>beamer_illinois</t>
-  </si>
-  <si>
-    <t>James Balamuta</t>
-  </si>
-  <si>
-    <t>[GitHub](https://github.com/illinois-r/uiucthemes)</t>
-  </si>
-  <si>
-    <t>beamer_imetropolis</t>
-  </si>
-  <si>
-    <t>beamer_mil</t>
-  </si>
-  <si>
-    <t>beamer_orange</t>
-  </si>
-  <si>
-    <t>html_imetropolis</t>
-  </si>
-  <si>
-    <t>rmdTemplates</t>
-  </si>
-  <si>
-    <t>ms_ecoszstemas</t>
-  </si>
-  <si>
-    <t>docx</t>
-  </si>
-  <si>
-    <t>Francisco Rodriguez-Sanchez</t>
-  </si>
-  <si>
-    <t>[GitHub](https://github.com/Pakillo/rmdTemplates)</t>
-  </si>
-  <si>
-    <t>ms_pdf</t>
-  </si>
-  <si>
-    <t>ms_pdf_boettiger</t>
-  </si>
-  <si>
-    <t>drposter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ben Bucior </t>
-  </si>
-  <si>
-    <t>[GitHub](https://github.com/bbucior/drposter)</t>
-  </si>
-  <si>
-    <t>pagedown</t>
-  </si>
-  <si>
-    <t>html_letter</t>
-  </si>
-  <si>
-    <t>[Yihui Xie](https://yihui.org/) et al.</t>
-  </si>
-  <si>
-    <t>[GitHub](https://github.com/rstudio/pagedown)</t>
-  </si>
-  <si>
-    <t>poster_jacobs</t>
-  </si>
-  <si>
-    <t>poster_relaxed</t>
-  </si>
-  <si>
-    <t>html_resume</t>
-  </si>
-  <si>
-    <t>resume</t>
-  </si>
-  <si>
-    <t>jss_paged</t>
-  </si>
-  <si>
-    <t>thesis_paged</t>
-  </si>
-  <si>
-    <t>html_paged</t>
-  </si>
-  <si>
-    <t>xaringan</t>
-  </si>
-  <si>
-    <t>moon_reader</t>
-  </si>
-  <si>
-    <t>[Yihui Xie](https://yihui.org/)</t>
-  </si>
-  <si>
-    <t>[GitHub](https://github.com/yihui/xaringan)</t>
-  </si>
-  <si>
-    <t>markdowntemplates</t>
-  </si>
-  <si>
-    <t>bulma</t>
-  </si>
-  <si>
-    <t>[GitHub](https://github.com/hrbrmstr/markdowntemplates)</t>
-  </si>
-  <si>
-    <t>kickstart</t>
-  </si>
-  <si>
-    <t>skeleton</t>
-  </si>
-  <si>
-    <t>thesisdown</t>
-  </si>
-  <si>
-    <t>Chester Ismay and Nick Solomon</t>
-  </si>
-  <si>
-    <t>[GitHub](https://github.com/ismayc/thesisdown)</t>
+    <t>report,college</t>
+  </si>
+  <si>
+    <t>[View](https://openr.pzhao.org/report/xjtlu/)</t>
+  </si>
+  <si>
+    <t>西交利物浦大学报告</t>
+  </si>
+  <si>
+    <t>poster,college</t>
+  </si>
+  <si>
+    <t>[View](https://openr.pzhao.org/poster/xjtlu/)</t>
+  </si>
+  <si>
+    <t>西交利物浦大学海报</t>
+  </si>
+  <si>
+    <t>[View](https://openr.pzhao.org/slides/cufe2020/)</t>
+  </si>
+  <si>
+    <t>西交利物浦大学幻灯片</t>
+  </si>
+  <si>
+    <t>rticles</t>
+  </si>
+  <si>
+    <t>acm_article</t>
+  </si>
+  <si>
+    <t>JJ Allaire et al.</t>
+  </si>
+  <si>
+    <t>[GitHub](https://github.com/rstudio/rticles)</t>
+  </si>
+  <si>
+    <t>acs_article</t>
+  </si>
+  <si>
+    <t>aea_article</t>
+  </si>
+  <si>
+    <t>agu_article</t>
+  </si>
+  <si>
+    <t>amq_article</t>
+  </si>
+  <si>
+    <t>ams_article</t>
+  </si>
+  <si>
+    <t>asa_article</t>
+  </si>
+  <si>
+    <t>biometrics_article</t>
+  </si>
+  <si>
+    <t>copernicus_article</t>
+  </si>
+  <si>
+    <t>ctex</t>
+  </si>
+  <si>
+    <t>elsevier_article</t>
+  </si>
+  <si>
+    <t>frontiers_article</t>
+  </si>
+  <si>
+    <t>ieee_article</t>
+  </si>
+  <si>
+    <t>joss_article</t>
+  </si>
+  <si>
+    <t>jss_article</t>
+  </si>
+  <si>
+    <t>mdpi_article</t>
+  </si>
+  <si>
+    <t>mnras_article</t>
+  </si>
+  <si>
+    <t>oup_article</t>
+  </si>
+  <si>
+    <t>peerj_article</t>
+  </si>
+  <si>
+    <t>plos_article</t>
+  </si>
+  <si>
+    <t>pnas_article</t>
+  </si>
+  <si>
+    <t>rjournal_article</t>
+  </si>
+  <si>
+    <t>rsos_article</t>
+  </si>
+  <si>
+    <t>rss_article</t>
+  </si>
+  <si>
+    <t>sage_article</t>
+  </si>
+  <si>
+    <t>sim_article</t>
+  </si>
+  <si>
+    <t>springer_article</t>
+  </si>
+  <si>
+    <t>tf_article</t>
   </si>
 </sst>
 </file>
@@ -606,9 +1050,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -621,16 +1064,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -651,8 +1087,70 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -673,25 +1171,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -699,45 +1181,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -765,19 +1209,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -795,7 +1245,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -807,127 +1329,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -945,12 +1359,42 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -959,52 +1403,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thick">
+        <color auto="1"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thick">
+        <color auto="1"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thick">
+        <color auto="1"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thick">
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1028,7 +1437,37 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1051,6 +1490,26 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
@@ -1062,10 +1521,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1074,149 +1533,161 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1339,7 +1810,11 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:K170" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:K171" totalsRowShown="0">
+  <sortState ref="A1:K171">
+    <sortCondition ref="A2:A171"/>
+    <sortCondition ref="C2:C171"/>
+  </sortState>
   <tableColumns count="11">
     <tableColumn id="1" name="PACKAGE" dataDxfId="0"/>
     <tableColumn id="2" name="WEIGHT" dataDxfId="1"/>
@@ -1615,21 +2090,21 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K170"/>
+  <dimension ref="A1:K171"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B71" workbookViewId="0">
-      <selection activeCell="F85" sqref="F85"/>
+    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
+      <selection activeCell="G41" sqref="G41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="16.75" style="3" customWidth="1"/>
-    <col min="2" max="2" width="7.5" style="3" customWidth="1"/>
-    <col min="3" max="3" width="17" style="4" customWidth="1"/>
-    <col min="4" max="4" width="15.375" style="4" customWidth="1"/>
-    <col min="5" max="5" width="6.25" style="4" customWidth="1"/>
-    <col min="6" max="6" width="36.5" style="4" customWidth="1"/>
-    <col min="7" max="7" width="48.875" style="4" customWidth="1"/>
+    <col min="1" max="1" width="13.0833333333333" style="3" customWidth="1"/>
+    <col min="2" max="2" width="6.30833333333333" style="3" customWidth="1"/>
+    <col min="3" max="3" width="11.8833333333333" style="4" customWidth="1"/>
+    <col min="4" max="4" width="11.025" style="4" customWidth="1"/>
+    <col min="5" max="5" width="3.45833333333333" style="4" customWidth="1"/>
+    <col min="6" max="6" width="17.4" style="4" customWidth="1"/>
+    <col min="7" max="7" width="8.76666666666667" style="4" customWidth="1"/>
     <col min="8" max="8" width="4.875" style="4" customWidth="1"/>
     <col min="9" max="9" width="8.75" style="4" customWidth="1"/>
     <col min="10" max="10" width="9.125" style="4" customWidth="1"/>
@@ -1679,7 +2154,7 @@
         <v>11</v>
       </c>
       <c r="B2" s="2">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>12</v>
@@ -1699,17 +2174,20 @@
       <c r="H2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="J2" s="5"/>
+      <c r="I2" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2" s="6"/>
     </row>
     <row r="3" s="2" customFormat="1" spans="1:10">
       <c r="A3" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B3" s="2">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>13</v>
@@ -1726,20 +2204,23 @@
       <c r="H3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="J3" s="5"/>
+      <c r="I3" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="J3" s="6"/>
     </row>
     <row r="4" s="2" customFormat="1" spans="1:10">
       <c r="A4" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B4" s="2">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>14</v>
@@ -1753,20 +2234,25 @@
       <c r="H4" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="J4" s="5"/>
+      <c r="I4" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="J4" s="6" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="5" s="2" customFormat="1" spans="1:10">
       <c r="A5" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B5" s="2">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>14</v>
@@ -1780,2636 +2266,3634 @@
       <c r="H5" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="J5" s="5"/>
+      <c r="I5" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="J5" s="6"/>
     </row>
     <row r="6" s="2" customFormat="1" spans="1:10">
       <c r="A6" s="2" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="B6" s="2">
         <v>10</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F6" s="2" t="s">
-        <v>15</v>
+      <c r="F6" s="5" t="s">
+        <v>30</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="J6" s="5"/>
+        <v>32</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="J6" s="5" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="7" s="2" customFormat="1" spans="1:10">
       <c r="A7" s="2" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="B7" s="2">
         <v>10</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>14</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="J7" s="5"/>
+        <v>32</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J7" s="5" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="8" s="2" customFormat="1" spans="1:10">
       <c r="A8" s="2" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="B8" s="2">
         <v>10</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>14</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="J8" s="5"/>
+        <v>32</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="J8" s="5" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="9" s="2" customFormat="1" spans="1:10">
       <c r="A9" s="2" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="B9" s="2">
         <v>10</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>14</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="J9" s="5"/>
+        <v>32</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="J9" s="5" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="10" s="2" customFormat="1" spans="1:10">
       <c r="A10" s="2" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="B10" s="2">
         <v>10</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>14</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="J10" s="5"/>
+        <v>32</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J10" s="5" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="11" s="2" customFormat="1" spans="1:10">
       <c r="A11" s="2" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="B11" s="2">
         <v>10</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>14</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="J11" s="5"/>
+        <v>32</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="J11" s="5" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="12" s="2" customFormat="1" spans="1:10">
       <c r="A12" s="2" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="B12" s="2">
         <v>10</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>30</v>
+        <v>53</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>20</v>
+        <v>54</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>14</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="J12" s="5"/>
+        <v>32</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="J12" s="5" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="13" s="2" customFormat="1" spans="1:10">
       <c r="A13" s="2" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="B13" s="2">
         <v>10</v>
       </c>
       <c r="C13" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="G13" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="D13" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G13" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="H13" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="J13" s="5"/>
+        <v>32</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="J13" s="5" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="14" s="2" customFormat="1" spans="1:10">
       <c r="A14" s="2" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="B14" s="2">
         <v>10</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>32</v>
+        <v>61</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>13</v>
+        <v>62</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>14</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>15</v>
+        <v>63</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="J14" s="5"/>
+        <v>32</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="J14" s="5" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="15" s="2" customFormat="1" spans="1:10">
       <c r="A15" s="2" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="B15" s="2">
         <v>10</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>33</v>
+        <v>66</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>14</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>15</v>
+        <v>58</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="J15" s="5"/>
+        <v>32</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="J15" s="5" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="16" s="2" customFormat="1" spans="1:10">
       <c r="A16" s="2" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="B16" s="2">
         <v>10</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>34</v>
+        <v>69</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>14</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>15</v>
+        <v>58</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="J16" s="5"/>
+        <v>32</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="J16" s="5" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="17" s="2" customFormat="1" spans="1:10">
       <c r="A17" s="2" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="B17" s="2">
         <v>10</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>35</v>
+        <v>72</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>14</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="J17" s="5"/>
+        <v>32</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="J17" s="5" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="18" s="2" customFormat="1" spans="1:10">
       <c r="A18" s="2" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="B18" s="2">
         <v>10</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>36</v>
+        <v>75</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F18" s="2" t="s">
-        <v>15</v>
+      <c r="F18" s="5" t="s">
+        <v>76</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="J18" s="5"/>
+        <v>32</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="J18" s="5" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="19" s="2" customFormat="1" spans="1:10">
       <c r="A19" s="2" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="B19" s="2">
         <v>10</v>
       </c>
       <c r="C19" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F19" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="D19" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>15</v>
-      </c>
       <c r="G19" s="3" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="J19" s="5"/>
+        <v>32</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="J19" s="5" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="20" s="2" customFormat="1" spans="1:10">
       <c r="A20" s="2" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="B20" s="2">
         <v>10</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>38</v>
+        <v>82</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>39</v>
+        <v>83</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>14</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="J20" s="5"/>
+        <v>32</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="J20" s="5" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="21" s="2" customFormat="1" spans="1:10">
       <c r="A21" s="2" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="B21" s="2">
         <v>10</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>40</v>
+        <v>86</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>24</v>
+        <v>54</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>14</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="J21" s="5"/>
+        <v>32</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="J21" s="5" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="22" s="2" customFormat="1" spans="1:10">
       <c r="A22" s="2" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="B22" s="2">
         <v>10</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>41</v>
+        <v>89</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>14</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="J22" s="5"/>
+        <v>32</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="J22" s="5" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="23" s="2" customFormat="1" spans="1:10">
       <c r="A23" s="2" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="B23" s="2">
         <v>10</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>42</v>
+        <v>92</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>14</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="J23" s="5"/>
+        <v>32</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="J23" s="5" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="24" s="2" customFormat="1" spans="1:10">
       <c r="A24" s="2" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="B24" s="2">
         <v>10</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>43</v>
+        <v>95</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>14</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="J24" s="5"/>
+        <v>32</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="J24" s="5" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="25" s="2" customFormat="1" spans="1:10">
       <c r="A25" s="2" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="B25" s="2">
         <v>10</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>44</v>
+        <v>98</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>20</v>
+        <v>99</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>14</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="J25" s="5"/>
+        <v>32</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="J25" s="5" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="26" s="2" customFormat="1" spans="1:10">
       <c r="A26" s="2" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="B26" s="2">
         <v>10</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>45</v>
+        <v>102</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>24</v>
+        <v>54</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>14</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="J26" s="5"/>
+        <v>32</v>
+      </c>
+      <c r="I26" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="J26" s="5" t="s">
+        <v>104</v>
+      </c>
     </row>
     <row r="27" s="2" customFormat="1" spans="1:10">
       <c r="A27" s="2" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="B27" s="2">
         <v>10</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>46</v>
+        <v>105</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>14</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>15</v>
+        <v>58</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="J27" s="5"/>
+        <v>32</v>
+      </c>
+      <c r="I27" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="J27" s="5" t="s">
+        <v>107</v>
+      </c>
     </row>
     <row r="28" s="2" customFormat="1" spans="1:10">
       <c r="A28" s="2" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="B28" s="2">
         <v>10</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>47</v>
+        <v>108</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>14</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="J28" s="5"/>
+        <v>32</v>
+      </c>
+      <c r="I28" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="J28" s="5" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="29" s="2" customFormat="1" spans="1:10">
       <c r="A29" s="2" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="B29" s="2">
         <v>10</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>48</v>
+        <v>111</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F29" s="2" t="s">
-        <v>15</v>
+      <c r="F29" s="5" t="s">
+        <v>112</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="J29" s="5"/>
+        <v>32</v>
+      </c>
+      <c r="I29" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="J29" s="5" t="s">
+        <v>114</v>
+      </c>
     </row>
     <row r="30" s="2" customFormat="1" spans="1:10">
       <c r="A30" s="2" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="B30" s="2">
         <v>10</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>49</v>
+        <v>115</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>14</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="J30" s="5"/>
+        <v>32</v>
+      </c>
+      <c r="I30" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="J30" s="5" t="s">
+        <v>117</v>
+      </c>
     </row>
     <row r="31" s="2" customFormat="1" spans="1:10">
       <c r="A31" s="2" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="B31" s="2">
         <v>10</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>50</v>
+        <v>118</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>27</v>
+        <v>83</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>14</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="J31" s="5"/>
+        <v>32</v>
+      </c>
+      <c r="I31" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="J31" s="5" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="32" s="2" customFormat="1" spans="1:10">
       <c r="A32" s="2" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="B32" s="2">
         <v>10</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>51</v>
+        <v>121</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>27</v>
+        <v>62</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>14</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="J32" s="5"/>
+        <v>32</v>
+      </c>
+      <c r="I32" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="J32" s="5" t="s">
+        <v>123</v>
+      </c>
     </row>
     <row r="33" s="2" customFormat="1" spans="1:10">
       <c r="A33" s="2" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="B33" s="2">
         <v>10</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>52</v>
+        <v>124</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>14</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="J33" s="5"/>
+        <v>32</v>
+      </c>
+      <c r="I33" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="J33" s="5" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="34" s="2" customFormat="1" spans="1:10">
       <c r="A34" s="2" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="B34" s="2">
         <v>10</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>53</v>
+        <v>127</v>
       </c>
       <c r="D34" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F34" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="G34" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="H34" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I34" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="J34" s="5" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="35" s="2" customFormat="1" spans="1:10">
+      <c r="A35" s="2" t="s">
         <v>27</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F34" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G34" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H34" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="J34" s="5"/>
-    </row>
-    <row r="35" s="2" customFormat="1" spans="1:8">
-      <c r="A35" s="2" t="s">
-        <v>54</v>
       </c>
       <c r="B35" s="2">
         <v>10</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>55</v>
+        <v>131</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>14</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>56</v>
+        <v>31</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="36" s="2" customFormat="1" spans="1:8">
+        <v>32</v>
+      </c>
+      <c r="I35" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="J35" s="7" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="36" s="2" customFormat="1" spans="1:10">
       <c r="A36" s="2" t="s">
-        <v>54</v>
+        <v>27</v>
       </c>
       <c r="B36" s="2">
         <v>10</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>57</v>
+        <v>134</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>14</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>56</v>
+        <v>31</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="37" s="2" customFormat="1" spans="1:8">
+        <v>32</v>
+      </c>
+      <c r="I36" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="J36" s="5" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="37" s="2" customFormat="1" spans="1:10">
       <c r="A37" s="2" t="s">
-        <v>54</v>
+        <v>27</v>
       </c>
       <c r="B37" s="2">
         <v>10</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>59</v>
+        <v>137</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>13</v>
+        <v>138</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>14</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>56</v>
+        <v>31</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="38" s="2" customFormat="1" spans="1:8">
+        <v>32</v>
+      </c>
+      <c r="I37" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="J37" s="5" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="38" s="2" customFormat="1" spans="1:10">
       <c r="A38" s="2" t="s">
-        <v>54</v>
+        <v>27</v>
       </c>
       <c r="B38" s="2">
         <v>10</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>60</v>
+        <v>141</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>13</v>
+        <v>62</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>14</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>56</v>
+        <v>31</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="39" s="2" customFormat="1" spans="1:8">
+        <v>32</v>
+      </c>
+      <c r="I38" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="J38" s="5" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="39" s="2" customFormat="1" spans="1:10">
       <c r="A39" s="2" t="s">
-        <v>54</v>
+        <v>27</v>
       </c>
       <c r="B39" s="2">
         <v>10</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>61</v>
+        <v>144</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>24</v>
+        <v>62</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>14</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>56</v>
+        <v>31</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="40" s="2" customFormat="1" spans="1:8">
+        <v>32</v>
+      </c>
+      <c r="I39" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="J39" s="5" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="40" s="2" customFormat="1" spans="1:10">
       <c r="A40" s="2" t="s">
-        <v>54</v>
+        <v>147</v>
       </c>
       <c r="B40" s="2">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>62</v>
+        <v>147</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>13</v>
+        <v>148</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>14</v>
+        <v>149</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>15</v>
+        <v>150</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>56</v>
+        <v>151</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="41" s="2" customFormat="1" spans="1:8">
+        <v>32</v>
+      </c>
+      <c r="I40" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="J40" s="2" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="41" s="2" customFormat="1" spans="1:10">
       <c r="A41" s="2" t="s">
-        <v>54</v>
+        <v>154</v>
       </c>
       <c r="B41" s="2">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>63</v>
+        <v>155</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>13</v>
+        <v>156</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>14</v>
+        <v>149</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>15</v>
+        <v>157</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>56</v>
+        <v>158</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>17</v>
+        <v>32</v>
+      </c>
+      <c r="J41" s="2" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="42" s="2" customFormat="1" spans="1:8">
       <c r="A42" s="2" t="s">
-        <v>64</v>
+        <v>160</v>
       </c>
       <c r="B42" s="2">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>65</v>
+        <v>99</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>65</v>
+        <v>99</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>66</v>
+        <v>14</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>15</v>
+        <v>161</v>
       </c>
       <c r="G42" s="3" t="s">
-        <v>67</v>
+        <v>162</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="43" s="2" customFormat="1" spans="1:8">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="43" s="2" customFormat="1" spans="1:11">
       <c r="A43" s="2" t="s">
-        <v>64</v>
+        <v>163</v>
       </c>
       <c r="B43" s="2">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>69</v>
+        <v>164</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>70</v>
+        <v>156</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>66</v>
+        <v>149</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>15</v>
+        <v>157</v>
       </c>
       <c r="G43" s="3" t="s">
-        <v>67</v>
+        <v>165</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>17</v>
+        <v>32</v>
+      </c>
+      <c r="K43" s="2" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="44" s="2" customFormat="1" spans="1:8">
       <c r="A44" s="2" t="s">
-        <v>64</v>
+        <v>163</v>
       </c>
       <c r="B44" s="2">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>71</v>
+        <v>167</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>71</v>
+        <v>156</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>66</v>
+        <v>149</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>15</v>
+        <v>157</v>
       </c>
       <c r="G44" s="3" t="s">
-        <v>67</v>
+        <v>165</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="45" s="2" customFormat="1" spans="1:8">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="45" s="2" customFormat="1" spans="1:11">
       <c r="A45" s="2" t="s">
-        <v>64</v>
+        <v>163</v>
       </c>
       <c r="B45" s="2">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>58</v>
+        <v>168</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>58</v>
+        <v>156</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>66</v>
+        <v>149</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>15</v>
+        <v>157</v>
       </c>
       <c r="G45" s="3" t="s">
-        <v>67</v>
+        <v>165</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>17</v>
+        <v>32</v>
+      </c>
+      <c r="K45" s="2" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="46" s="2" customFormat="1" spans="1:8">
       <c r="A46" s="2" t="s">
-        <v>72</v>
+        <v>170</v>
       </c>
       <c r="B46" s="2">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>73</v>
+        <v>171</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>58</v>
+        <v>99</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>14</v>
+        <v>149</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>74</v>
+        <v>172</v>
       </c>
       <c r="G46" s="3" t="s">
-        <v>75</v>
+        <v>173</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
     </row>
     <row r="47" s="2" customFormat="1" spans="1:8">
       <c r="A47" s="2" t="s">
-        <v>76</v>
+        <v>170</v>
       </c>
       <c r="B47" s="2">
         <v>100</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>77</v>
+        <v>174</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>70</v>
+        <v>44</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>66</v>
+        <v>149</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>78</v>
+        <v>172</v>
       </c>
       <c r="G47" s="3" t="s">
-        <v>79</v>
+        <v>173</v>
       </c>
       <c r="H47" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="48" s="2" customFormat="1" spans="1:8">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="48" s="2" customFormat="1" spans="1:9">
       <c r="A48" s="2" t="s">
-        <v>76</v>
+        <v>170</v>
       </c>
       <c r="B48" s="2">
         <v>100</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>80</v>
+        <v>175</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>70</v>
+        <v>176</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>66</v>
+        <v>149</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>78</v>
+        <v>172</v>
       </c>
       <c r="G48" s="3" t="s">
-        <v>79</v>
+        <v>173</v>
       </c>
       <c r="H48" s="2" t="s">
-        <v>17</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="I48" s="9"/>
     </row>
     <row r="49" s="2" customFormat="1" spans="1:8">
       <c r="A49" s="2" t="s">
-        <v>76</v>
+        <v>170</v>
       </c>
       <c r="B49" s="2">
         <v>100</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>81</v>
+        <v>177</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>70</v>
+        <v>54</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>66</v>
+        <v>149</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>78</v>
+        <v>172</v>
       </c>
       <c r="G49" s="3" t="s">
-        <v>79</v>
+        <v>173</v>
       </c>
       <c r="H49" s="2" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
     </row>
     <row r="50" s="2" customFormat="1" spans="1:8">
       <c r="A50" s="2" t="s">
-        <v>76</v>
+        <v>170</v>
       </c>
       <c r="B50" s="2">
         <v>100</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>82</v>
+        <v>178</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>70</v>
+        <v>148</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>66</v>
+        <v>149</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>78</v>
+        <v>172</v>
       </c>
       <c r="G50" s="3" t="s">
-        <v>79</v>
+        <v>173</v>
       </c>
       <c r="H50" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="51" s="2" customFormat="1" spans="1:8">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="51" s="2" customFormat="1" spans="1:9">
       <c r="A51" s="2" t="s">
-        <v>76</v>
+        <v>170</v>
       </c>
       <c r="B51" s="2">
         <v>100</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>37</v>
+        <v>179</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>70</v>
+        <v>148</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>66</v>
+        <v>149</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>78</v>
+        <v>172</v>
       </c>
       <c r="G51" s="3" t="s">
-        <v>79</v>
+        <v>173</v>
       </c>
       <c r="H51" s="2" t="s">
-        <v>17</v>
-      </c>
+        <v>180</v>
+      </c>
+      <c r="I51" s="10"/>
     </row>
     <row r="52" s="2" customFormat="1" spans="1:8">
       <c r="A52" s="2" t="s">
-        <v>76</v>
+        <v>170</v>
       </c>
       <c r="B52" s="2">
         <v>100</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>83</v>
+        <v>181</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>70</v>
+        <v>138</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>66</v>
+        <v>149</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>78</v>
+        <v>172</v>
       </c>
       <c r="G52" s="3" t="s">
-        <v>79</v>
+        <v>173</v>
       </c>
       <c r="H52" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="53" s="2" customFormat="1" spans="1:8">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="53" s="2" customFormat="1" spans="1:10">
       <c r="A53" s="2" t="s">
-        <v>76</v>
+        <v>182</v>
       </c>
       <c r="B53" s="2">
         <v>100</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>84</v>
+        <v>183</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>70</v>
+        <v>54</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>66</v>
+        <v>14</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>78</v>
+        <v>184</v>
       </c>
       <c r="G53" s="3" t="s">
-        <v>79</v>
+        <v>185</v>
       </c>
       <c r="H53" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="54" s="2" customFormat="1" spans="1:8">
+        <v>32</v>
+      </c>
+      <c r="J53" s="2" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="54" s="2" customFormat="1" spans="1:9">
       <c r="A54" s="2" t="s">
-        <v>76</v>
+        <v>187</v>
       </c>
       <c r="B54" s="2">
         <v>100</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>85</v>
+        <v>188</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>70</v>
+        <v>156</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>66</v>
+        <v>149</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>78</v>
+        <v>189</v>
       </c>
       <c r="G54" s="3" t="s">
-        <v>79</v>
+        <v>190</v>
       </c>
       <c r="H54" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="55" s="2" customFormat="1" spans="1:8">
+        <v>32</v>
+      </c>
+      <c r="I54" s="11" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="55" s="2" customFormat="1" spans="1:9">
       <c r="A55" s="2" t="s">
-        <v>76</v>
+        <v>187</v>
       </c>
       <c r="B55" s="2">
         <v>100</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>86</v>
+        <v>192</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>70</v>
+        <v>156</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>66</v>
+        <v>149</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>78</v>
+        <v>189</v>
       </c>
       <c r="G55" s="3" t="s">
-        <v>79</v>
+        <v>190</v>
       </c>
       <c r="H55" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="56" s="2" customFormat="1" spans="1:8">
+        <v>32</v>
+      </c>
+      <c r="I55" s="11" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="56" s="2" customFormat="1" spans="1:9">
       <c r="A56" s="2" t="s">
-        <v>76</v>
+        <v>187</v>
       </c>
       <c r="B56" s="2">
         <v>100</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>87</v>
+        <v>194</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>70</v>
+        <v>156</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>66</v>
+        <v>149</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>78</v>
+        <v>189</v>
       </c>
       <c r="G56" s="3" t="s">
-        <v>79</v>
+        <v>190</v>
       </c>
       <c r="H56" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="57" s="2" customFormat="1" spans="1:8">
+        <v>32</v>
+      </c>
+      <c r="I56" s="11" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="57" s="2" customFormat="1" spans="1:9">
       <c r="A57" s="2" t="s">
-        <v>76</v>
+        <v>187</v>
       </c>
       <c r="B57" s="2">
         <v>100</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>88</v>
+        <v>196</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>70</v>
+        <v>156</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>66</v>
+        <v>149</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>78</v>
+        <v>189</v>
       </c>
       <c r="G57" s="3" t="s">
-        <v>79</v>
+        <v>190</v>
       </c>
       <c r="H57" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="58" s="2" customFormat="1" spans="1:8">
+        <v>32</v>
+      </c>
+      <c r="I57" s="11" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="58" s="2" customFormat="1" spans="1:9">
       <c r="A58" s="2" t="s">
-        <v>76</v>
+        <v>187</v>
       </c>
       <c r="B58" s="2">
         <v>100</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>89</v>
+        <v>198</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>70</v>
+        <v>156</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>66</v>
+        <v>149</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>78</v>
+        <v>189</v>
       </c>
       <c r="G58" s="3" t="s">
-        <v>79</v>
+        <v>190</v>
       </c>
       <c r="H58" s="2" t="s">
-        <v>17</v>
+        <v>32</v>
+      </c>
+      <c r="I58" s="11" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="59" s="2" customFormat="1" spans="1:8">
       <c r="A59" s="2" t="s">
-        <v>76</v>
+        <v>200</v>
       </c>
       <c r="B59" s="2">
         <v>100</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>90</v>
+        <v>201</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>70</v>
+        <v>156</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>66</v>
+        <v>149</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>78</v>
+        <v>202</v>
       </c>
       <c r="G59" s="3" t="s">
-        <v>79</v>
+        <v>203</v>
       </c>
       <c r="H59" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="60" s="2" customFormat="1" spans="1:9">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="60" s="2" customFormat="1" spans="1:8">
       <c r="A60" s="2" t="s">
-        <v>91</v>
+        <v>200</v>
       </c>
       <c r="B60" s="2">
         <v>100</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>92</v>
+        <v>204</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>70</v>
+        <v>156</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>66</v>
+        <v>149</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>93</v>
+        <v>202</v>
       </c>
       <c r="G60" s="3" t="s">
-        <v>94</v>
+        <v>203</v>
       </c>
       <c r="H60" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="I60" s="2" t="s">
-        <v>95</v>
+        <v>32</v>
       </c>
     </row>
     <row r="61" s="2" customFormat="1" spans="1:9">
       <c r="A61" s="2" t="s">
-        <v>91</v>
+        <v>200</v>
       </c>
       <c r="B61" s="2">
         <v>100</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>96</v>
+        <v>205</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>70</v>
+        <v>156</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>66</v>
+        <v>149</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>93</v>
+        <v>202</v>
       </c>
       <c r="G61" s="3" t="s">
-        <v>94</v>
+        <v>203</v>
       </c>
       <c r="H61" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="I61" s="2" t="s">
-        <v>97</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="I61" s="6"/>
     </row>
     <row r="62" s="2" customFormat="1" spans="1:9">
       <c r="A62" s="2" t="s">
-        <v>91</v>
+        <v>200</v>
       </c>
       <c r="B62" s="2">
         <v>100</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>98</v>
+        <v>206</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>70</v>
+        <v>156</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>66</v>
+        <v>149</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>93</v>
+        <v>202</v>
       </c>
       <c r="G62" s="3" t="s">
-        <v>94</v>
+        <v>203</v>
       </c>
       <c r="H62" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="I62" s="2" t="s">
-        <v>99</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="I62" s="6"/>
     </row>
     <row r="63" s="2" customFormat="1" spans="1:9">
       <c r="A63" s="2" t="s">
-        <v>91</v>
+        <v>200</v>
       </c>
       <c r="B63" s="2">
         <v>100</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>70</v>
+        <v>156</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>66</v>
+        <v>149</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>93</v>
+        <v>202</v>
       </c>
       <c r="G63" s="3" t="s">
-        <v>94</v>
+        <v>203</v>
       </c>
       <c r="H63" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="I63" s="2" t="s">
-        <v>101</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="I63" s="6"/>
     </row>
     <row r="64" s="2" customFormat="1" spans="1:9">
       <c r="A64" s="2" t="s">
-        <v>91</v>
+        <v>200</v>
       </c>
       <c r="B64" s="2">
         <v>100</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>102</v>
+        <v>207</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>70</v>
+        <v>156</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>66</v>
+        <v>149</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>93</v>
+        <v>202</v>
       </c>
       <c r="G64" s="3" t="s">
-        <v>94</v>
+        <v>203</v>
       </c>
       <c r="H64" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="I64" s="2" t="s">
-        <v>103</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="I64" s="6"/>
     </row>
     <row r="65" s="2" customFormat="1" spans="1:9">
       <c r="A65" s="2" t="s">
-        <v>104</v>
+        <v>200</v>
       </c>
       <c r="B65" s="2">
         <v>100</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>105</v>
+        <v>208</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>58</v>
+        <v>156</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>66</v>
+        <v>149</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>106</v>
+        <v>202</v>
       </c>
       <c r="G65" s="3" t="s">
-        <v>107</v>
+        <v>203</v>
       </c>
       <c r="H65" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="I65" s="2" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="66" s="2" customFormat="1" spans="1:8">
+        <v>32</v>
+      </c>
+      <c r="I65" s="6"/>
+    </row>
+    <row r="66" s="2" customFormat="1" spans="1:9">
       <c r="A66" s="2" t="s">
-        <v>109</v>
+        <v>200</v>
       </c>
       <c r="B66" s="2">
         <v>100</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>110</v>
+        <v>209</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>70</v>
+        <v>156</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>66</v>
+        <v>149</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>111</v>
+        <v>202</v>
       </c>
       <c r="G66" s="3" t="s">
-        <v>112</v>
+        <v>203</v>
       </c>
       <c r="H66" s="2" t="s">
-        <v>68</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="I66" s="6"/>
     </row>
     <row r="67" s="2" customFormat="1" spans="1:8">
       <c r="A67" s="2" t="s">
-        <v>109</v>
+        <v>200</v>
       </c>
       <c r="B67" s="2">
         <v>100</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>113</v>
+        <v>210</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>70</v>
+        <v>156</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>66</v>
+        <v>149</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>111</v>
+        <v>202</v>
       </c>
       <c r="G67" s="3" t="s">
-        <v>112</v>
+        <v>203</v>
       </c>
       <c r="H67" s="2" t="s">
-        <v>68</v>
+        <v>32</v>
       </c>
     </row>
     <row r="68" s="2" customFormat="1" spans="1:8">
       <c r="A68" s="2" t="s">
-        <v>109</v>
+        <v>200</v>
       </c>
       <c r="B68" s="2">
         <v>100</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>114</v>
+        <v>211</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>70</v>
+        <v>156</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>66</v>
+        <v>149</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>111</v>
+        <v>202</v>
       </c>
       <c r="G68" s="3" t="s">
-        <v>112</v>
+        <v>203</v>
       </c>
       <c r="H68" s="2" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
     </row>
     <row r="69" s="2" customFormat="1" spans="1:8">
       <c r="A69" s="2" t="s">
-        <v>109</v>
+        <v>200</v>
       </c>
       <c r="B69" s="2">
         <v>100</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>115</v>
+        <v>212</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>70</v>
+        <v>156</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>66</v>
+        <v>149</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>111</v>
+        <v>202</v>
       </c>
       <c r="G69" s="3" t="s">
-        <v>112</v>
+        <v>203</v>
       </c>
       <c r="H69" s="2" t="s">
-        <v>68</v>
+        <v>32</v>
       </c>
     </row>
     <row r="70" s="2" customFormat="1" spans="1:8">
       <c r="A70" s="2" t="s">
-        <v>116</v>
+        <v>200</v>
       </c>
       <c r="B70" s="2">
         <v>100</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>117</v>
+        <v>213</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>70</v>
+        <v>156</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>66</v>
+        <v>149</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>118</v>
+        <v>202</v>
       </c>
       <c r="G70" s="3" t="s">
-        <v>119</v>
+        <v>203</v>
       </c>
       <c r="H70" s="2" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
     </row>
     <row r="71" s="2" customFormat="1" spans="1:8">
       <c r="A71" s="2" t="s">
-        <v>120</v>
+        <v>200</v>
       </c>
       <c r="B71" s="2">
         <v>100</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>121</v>
+        <v>214</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>70</v>
+        <v>156</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>66</v>
+        <v>149</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>122</v>
+        <v>202</v>
       </c>
       <c r="G71" s="3" t="s">
-        <v>123</v>
+        <v>203</v>
       </c>
       <c r="H71" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="72" s="2" customFormat="1" spans="1:8">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="72" s="2" customFormat="1" spans="1:9">
       <c r="A72" s="2" t="s">
-        <v>120</v>
+        <v>215</v>
       </c>
       <c r="B72" s="2">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>124</v>
+        <v>216</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>20</v>
+        <v>217</v>
       </c>
       <c r="E72" s="2" t="s">
         <v>14</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>122</v>
+        <v>63</v>
       </c>
       <c r="G72" s="3" t="s">
-        <v>123</v>
+        <v>218</v>
       </c>
       <c r="H72" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="73" s="2" customFormat="1" spans="1:8">
+        <v>32</v>
+      </c>
+      <c r="I72" s="2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="73" s="2" customFormat="1" spans="1:11">
       <c r="A73" s="2" t="s">
-        <v>120</v>
+        <v>220</v>
       </c>
       <c r="B73" s="2">
         <v>100</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>125</v>
+        <v>221</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>70</v>
+        <v>156</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>14</v>
+        <v>149</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>122</v>
+        <v>222</v>
       </c>
       <c r="G73" s="3" t="s">
-        <v>123</v>
+        <v>223</v>
       </c>
       <c r="H73" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="74" s="2" customFormat="1" spans="1:8">
+        <v>180</v>
+      </c>
+      <c r="K73" s="2" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="74" s="2" customFormat="1" spans="1:11">
       <c r="A74" s="2" t="s">
-        <v>126</v>
+        <v>220</v>
       </c>
       <c r="B74" s="2">
         <v>100</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>20</v>
+        <v>225</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>20</v>
+        <v>156</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>14</v>
+        <v>149</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>127</v>
+        <v>222</v>
       </c>
       <c r="G74" s="3" t="s">
-        <v>128</v>
+        <v>223</v>
       </c>
       <c r="H74" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="75" s="2" customFormat="1" spans="1:8">
+        <v>180</v>
+      </c>
+      <c r="K74" s="2" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="75" s="2" customFormat="1" spans="1:11">
       <c r="A75" s="2" t="s">
-        <v>126</v>
+        <v>220</v>
       </c>
       <c r="B75" s="2">
         <v>100</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>129</v>
+        <v>227</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>70</v>
+        <v>156</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>14</v>
+        <v>149</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>127</v>
+        <v>222</v>
       </c>
       <c r="G75" s="3" t="s">
-        <v>128</v>
+        <v>223</v>
       </c>
       <c r="H75" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="76" s="2" customFormat="1" spans="1:9">
+        <v>32</v>
+      </c>
+      <c r="K75" s="2" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="76" s="2" customFormat="1" spans="1:11">
       <c r="A76" s="2" t="s">
-        <v>126</v>
+        <v>220</v>
       </c>
       <c r="B76" s="2">
         <v>100</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>66</v>
+        <v>229</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>70</v>
+        <v>156</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>66</v>
+        <v>149</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>127</v>
+        <v>222</v>
       </c>
       <c r="G76" s="3" t="s">
-        <v>128</v>
+        <v>223</v>
       </c>
       <c r="H76" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="I76" s="2" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="77" s="2" customFormat="1" spans="1:8">
+        <v>180</v>
+      </c>
+      <c r="K76" s="2" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="77" s="2" customFormat="1" spans="1:9">
       <c r="A77" s="2" t="s">
-        <v>131</v>
+        <v>231</v>
       </c>
       <c r="B77" s="2">
         <v>100</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>132</v>
+        <v>232</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>58</v>
+        <v>13</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>14</v>
+        <v>149</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>133</v>
+        <v>233</v>
       </c>
       <c r="G77" s="3" t="s">
-        <v>134</v>
+        <v>234</v>
       </c>
       <c r="H77" s="2" t="s">
-        <v>135</v>
+        <v>32</v>
+      </c>
+      <c r="I77" s="2" t="s">
+        <v>235</v>
       </c>
     </row>
     <row r="78" s="2" customFormat="1" spans="1:8">
       <c r="A78" s="2" t="s">
-        <v>131</v>
+        <v>236</v>
       </c>
       <c r="B78" s="2">
         <v>100</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>136</v>
+        <v>237</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>14</v>
+        <v>238</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>133</v>
+        <v>239</v>
       </c>
       <c r="G78" s="3" t="s">
-        <v>134</v>
+        <v>240</v>
       </c>
       <c r="H78" s="2" t="s">
-        <v>135</v>
+        <v>32</v>
       </c>
     </row>
     <row r="79" s="2" customFormat="1" spans="1:8">
       <c r="A79" s="2" t="s">
-        <v>131</v>
+        <v>236</v>
       </c>
       <c r="B79" s="2">
         <v>100</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>137</v>
+        <v>241</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="E79" s="2" t="s">
         <v>14</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>133</v>
+        <v>239</v>
       </c>
       <c r="G79" s="3" t="s">
-        <v>134</v>
+        <v>240</v>
       </c>
       <c r="H79" s="2" t="s">
-        <v>135</v>
+        <v>32</v>
       </c>
     </row>
     <row r="80" s="2" customFormat="1" spans="1:8">
       <c r="A80" s="2" t="s">
-        <v>131</v>
+        <v>236</v>
       </c>
       <c r="B80" s="2">
         <v>100</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>138</v>
+        <v>242</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="E80" s="2" t="s">
         <v>14</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>133</v>
+        <v>239</v>
       </c>
       <c r="G80" s="3" t="s">
-        <v>134</v>
+        <v>240</v>
       </c>
       <c r="H80" s="2" t="s">
-        <v>135</v>
+        <v>32</v>
       </c>
     </row>
     <row r="81" s="2" customFormat="1" spans="1:8">
       <c r="A81" s="2" t="s">
-        <v>139</v>
+        <v>243</v>
       </c>
       <c r="B81" s="2">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>39</v>
+        <v>244</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>39</v>
+        <v>83</v>
       </c>
       <c r="E81" s="2" t="s">
         <v>14</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>140</v>
+        <v>37</v>
       </c>
       <c r="G81" s="3" t="s">
-        <v>141</v>
+        <v>245</v>
       </c>
       <c r="H81" s="2" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
     </row>
     <row r="82" s="2" customFormat="1" spans="1:8">
       <c r="A82" s="2" t="s">
-        <v>142</v>
+        <v>243</v>
       </c>
       <c r="B82" s="2">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>143</v>
+        <v>246</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>24</v>
+        <v>217</v>
       </c>
       <c r="E82" s="2" t="s">
         <v>14</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>144</v>
+        <v>37</v>
       </c>
       <c r="G82" s="3" t="s">
-        <v>145</v>
+        <v>245</v>
       </c>
       <c r="H82" s="2" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
     </row>
     <row r="83" s="2" customFormat="1" spans="1:8">
       <c r="A83" s="2" t="s">
-        <v>146</v>
+        <v>243</v>
       </c>
       <c r="B83" s="2">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>147</v>
+        <v>247</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>58</v>
+        <v>36</v>
       </c>
       <c r="E83" s="2" t="s">
         <v>14</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>148</v>
+        <v>37</v>
       </c>
       <c r="G83" s="3" t="s">
-        <v>149</v>
+        <v>245</v>
       </c>
       <c r="H83" s="2" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
     </row>
     <row r="84" s="2" customFormat="1" spans="1:8">
       <c r="A84" s="2" t="s">
-        <v>146</v>
+        <v>243</v>
       </c>
       <c r="B84" s="2">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>150</v>
+        <v>248</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>58</v>
+        <v>36</v>
       </c>
       <c r="E84" s="2" t="s">
         <v>14</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>148</v>
+        <v>37</v>
       </c>
       <c r="G84" s="3" t="s">
-        <v>149</v>
+        <v>245</v>
       </c>
       <c r="H84" s="2" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
     </row>
     <row r="85" s="2" customFormat="1" spans="1:8">
       <c r="A85" s="2" t="s">
-        <v>146</v>
+        <v>243</v>
       </c>
       <c r="B85" s="2">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>151</v>
+        <v>249</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>58</v>
+        <v>83</v>
       </c>
       <c r="E85" s="2" t="s">
         <v>14</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>148</v>
+        <v>37</v>
       </c>
       <c r="G85" s="3" t="s">
-        <v>149</v>
+        <v>245</v>
       </c>
       <c r="H85" s="2" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
     </row>
     <row r="86" s="2" customFormat="1" spans="1:8">
       <c r="A86" s="2" t="s">
-        <v>146</v>
+        <v>243</v>
       </c>
       <c r="B86" s="2">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>152</v>
+        <v>250</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>58</v>
+        <v>251</v>
       </c>
       <c r="E86" s="2" t="s">
         <v>14</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>148</v>
+        <v>37</v>
       </c>
       <c r="G86" s="3" t="s">
-        <v>149</v>
+        <v>245</v>
       </c>
       <c r="H86" s="2" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
     </row>
     <row r="87" s="2" customFormat="1" spans="1:8">
       <c r="A87" s="2" t="s">
-        <v>146</v>
+        <v>243</v>
       </c>
       <c r="B87" s="2">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>153</v>
+        <v>252</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>58</v>
+        <v>251</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>66</v>
+        <v>14</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>148</v>
+        <v>37</v>
       </c>
       <c r="G87" s="3" t="s">
-        <v>149</v>
+        <v>245</v>
       </c>
       <c r="H87" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="88" s="2" customFormat="1" spans="1:8">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="88" s="2" customFormat="1" spans="1:11">
       <c r="A88" s="2" t="s">
-        <v>154</v>
+        <v>253</v>
       </c>
       <c r="B88" s="2">
         <v>100</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>155</v>
+        <v>254</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>24</v>
+        <v>254</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>156</v>
+        <v>14</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>157</v>
+        <v>255</v>
       </c>
       <c r="G88" s="3" t="s">
-        <v>158</v>
+        <v>256</v>
       </c>
       <c r="H88" s="2" t="s">
-        <v>17</v>
+        <v>32</v>
+      </c>
+      <c r="J88" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="K88" s="2" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="89" s="2" customFormat="1" spans="1:8">
       <c r="A89" s="2" t="s">
-        <v>154</v>
+        <v>259</v>
       </c>
       <c r="B89" s="2">
         <v>100</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>159</v>
+        <v>260</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="E89" s="2" t="s">
         <v>14</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>157</v>
+        <v>261</v>
       </c>
       <c r="G89" s="3" t="s">
-        <v>158</v>
+        <v>262</v>
       </c>
       <c r="H89" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="90" s="2" customFormat="1" spans="1:8">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="90" s="2" customFormat="1" spans="1:9">
       <c r="A90" s="2" t="s">
-        <v>154</v>
+        <v>259</v>
       </c>
       <c r="B90" s="2">
         <v>100</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>160</v>
+        <v>263</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>24</v>
+        <v>156</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>14</v>
+        <v>149</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>157</v>
+        <v>261</v>
       </c>
       <c r="G90" s="3" t="s">
-        <v>158</v>
+        <v>262</v>
       </c>
       <c r="H90" s="2" t="s">
-        <v>17</v>
+        <v>32</v>
+      </c>
+      <c r="I90" s="2" t="s">
+        <v>264</v>
       </c>
     </row>
     <row r="91" s="2" customFormat="1" spans="1:8">
       <c r="A91" s="2" t="s">
-        <v>161</v>
+        <v>259</v>
       </c>
       <c r="B91" s="2">
         <v>100</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>161</v>
+        <v>265</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>71</v>
+        <v>156</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>66</v>
+        <v>14</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>162</v>
+        <v>261</v>
       </c>
       <c r="G91" s="3" t="s">
-        <v>163</v>
+        <v>262</v>
       </c>
       <c r="H91" s="2" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
     </row>
     <row r="92" s="2" customFormat="1" spans="1:8">
       <c r="A92" s="2" t="s">
-        <v>164</v>
+        <v>266</v>
       </c>
       <c r="B92" s="2">
         <v>100</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>165</v>
+        <v>44</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>66</v>
+        <v>14</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>166</v>
+        <v>267</v>
       </c>
       <c r="G92" s="3" t="s">
-        <v>167</v>
+        <v>268</v>
       </c>
       <c r="H92" s="2" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
     </row>
     <row r="93" s="2" customFormat="1" spans="1:8">
       <c r="A93" s="2" t="s">
-        <v>164</v>
+        <v>266</v>
       </c>
       <c r="B93" s="2">
         <v>100</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>168</v>
+        <v>269</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>71</v>
+        <v>156</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>66</v>
+        <v>14</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>166</v>
+        <v>267</v>
       </c>
       <c r="G93" s="3" t="s">
-        <v>167</v>
+        <v>268</v>
       </c>
       <c r="H93" s="2" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
     </row>
     <row r="94" s="2" customFormat="1" spans="1:9">
       <c r="A94" s="2" t="s">
-        <v>164</v>
+        <v>266</v>
       </c>
       <c r="B94" s="2">
         <v>100</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>169</v>
+        <v>149</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>71</v>
+        <v>156</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>66</v>
+        <v>149</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>166</v>
+        <v>267</v>
       </c>
       <c r="G94" s="3" t="s">
-        <v>167</v>
+        <v>268</v>
       </c>
       <c r="H94" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="I94" s="3"/>
-    </row>
-    <row r="95" s="2" customFormat="1" spans="1:8">
+        <v>32</v>
+      </c>
+      <c r="I94" s="11" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="95" s="2" customFormat="1" spans="1:10">
       <c r="A95" s="2" t="s">
-        <v>164</v>
+        <v>271</v>
       </c>
       <c r="B95" s="2">
         <v>100</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>170</v>
+        <v>272</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>171</v>
+        <v>22</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>66</v>
+        <v>14</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>166</v>
+        <v>273</v>
       </c>
       <c r="G95" s="3" t="s">
-        <v>167</v>
+        <v>274</v>
       </c>
       <c r="H95" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="96" s="2" customFormat="1" spans="1:8">
+        <v>32</v>
+      </c>
+      <c r="I95" s="6"/>
+      <c r="J95" s="2" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="96" s="2" customFormat="1" spans="1:10">
       <c r="A96" s="2" t="s">
-        <v>164</v>
+        <v>271</v>
       </c>
       <c r="B96" s="2">
         <v>100</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>172</v>
+        <v>276</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>66</v>
+        <v>14</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>166</v>
+        <v>273</v>
       </c>
       <c r="G96" s="3" t="s">
-        <v>167</v>
+        <v>274</v>
       </c>
       <c r="H96" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="97" s="2" customFormat="1" spans="1:8">
+        <v>32</v>
+      </c>
+      <c r="J96" s="2" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="97" s="2" customFormat="1" spans="1:10">
       <c r="A97" s="2" t="s">
-        <v>164</v>
+        <v>271</v>
       </c>
       <c r="B97" s="2">
         <v>100</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>173</v>
+        <v>278</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>66</v>
+        <v>14</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>166</v>
+        <v>273</v>
       </c>
       <c r="G97" s="3" t="s">
-        <v>167</v>
+        <v>274</v>
       </c>
       <c r="H97" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="98" s="2" customFormat="1" spans="1:8">
+        <v>32</v>
+      </c>
+      <c r="J97" s="2" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="98" s="2" customFormat="1" spans="1:10">
       <c r="A98" s="2" t="s">
-        <v>164</v>
+        <v>271</v>
       </c>
       <c r="B98" s="2">
         <v>100</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>174</v>
+        <v>280</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>66</v>
+        <v>14</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>166</v>
+        <v>273</v>
       </c>
       <c r="G98" s="3" t="s">
-        <v>167</v>
+        <v>274</v>
       </c>
       <c r="H98" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="99" s="2" customFormat="1" spans="1:8">
+        <v>32</v>
+      </c>
+      <c r="J98" s="2" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="99" s="2" customFormat="1" spans="1:10">
       <c r="A99" s="2" t="s">
-        <v>175</v>
+        <v>271</v>
       </c>
       <c r="B99" s="2">
         <v>100</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>176</v>
+        <v>282</v>
       </c>
       <c r="D99" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E99" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="F99" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="G99" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="H99" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J99" s="2" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="100" s="2" customFormat="1" spans="1:10">
+      <c r="A100" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="B100" s="2">
+        <v>100</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="D100" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E100" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="F100" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="E99" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="F99" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="G99" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="H99" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="100" s="2" customFormat="1" spans="1:8">
-      <c r="A100" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="B100" s="2">
-        <v>100</v>
-      </c>
-      <c r="C100" s="2" t="s">
+      <c r="G100" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="H100" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I100" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="J100" s="2" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="101" s="2" customFormat="1" spans="1:10">
+      <c r="A101" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="B101" s="2">
+        <v>10</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="D101" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="E101" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="F101" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G101" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="H101" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="D100" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="E100" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="F100" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="G100" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="H100" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="101" s="2" customFormat="1" spans="1:8">
-      <c r="A101" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="B101" s="2">
-        <v>100</v>
-      </c>
-      <c r="C101" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="D101" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="E101" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="F101" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="G101" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="H101" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="102" s="2" customFormat="1" spans="1:8">
+      <c r="I101" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="J101" s="2" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="102" s="2" customFormat="1" spans="1:10">
       <c r="A102" s="2" t="s">
-        <v>179</v>
+        <v>289</v>
       </c>
       <c r="B102" s="2">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>183</v>
+        <v>295</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>70</v>
+        <v>296</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>66</v>
+        <v>149</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>118</v>
+        <v>37</v>
       </c>
       <c r="G102" s="3" t="s">
-        <v>181</v>
+        <v>292</v>
       </c>
       <c r="H102" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="103" s="2" customFormat="1" spans="1:8">
+        <v>32</v>
+      </c>
+      <c r="I102" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="J102" s="2" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="103" s="2" customFormat="1" spans="1:10">
       <c r="A103" s="2" t="s">
-        <v>184</v>
+        <v>289</v>
       </c>
       <c r="B103" s="2">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>27</v>
+        <v>148</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>27</v>
+        <v>299</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>14</v>
+        <v>149</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>185</v>
+        <v>37</v>
       </c>
       <c r="G103" s="3" t="s">
-        <v>186</v>
+        <v>292</v>
       </c>
       <c r="H103" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="104" s="2" customFormat="1"/>
-    <row r="105" s="2" customFormat="1"/>
-    <row r="106" s="2" customFormat="1"/>
-    <row r="107" s="2" customFormat="1"/>
-    <row r="108" s="2" customFormat="1"/>
-    <row r="109" s="2" customFormat="1"/>
-    <row r="110" s="2" customFormat="1"/>
-    <row r="111" s="2" customFormat="1"/>
-    <row r="112" s="2" customFormat="1"/>
-    <row r="113" s="2" customFormat="1"/>
-    <row r="114" s="2" customFormat="1"/>
-    <row r="115" s="2" customFormat="1"/>
-    <row r="116" s="2" customFormat="1"/>
-    <row r="117" s="2" customFormat="1"/>
-    <row r="118" s="2" customFormat="1"/>
-    <row r="119" s="2" customFormat="1"/>
-    <row r="120" s="2" customFormat="1"/>
-    <row r="121" s="2" customFormat="1"/>
-    <row r="122" s="2" customFormat="1"/>
-    <row r="123" s="2" customFormat="1"/>
-    <row r="124" s="2" customFormat="1"/>
-    <row r="125" s="2" customFormat="1"/>
-    <row r="126" s="2" customFormat="1"/>
-    <row r="127" s="2" customFormat="1"/>
-    <row r="128" s="2" customFormat="1"/>
-    <row r="129" s="2" customFormat="1"/>
-    <row r="130" s="2" customFormat="1"/>
-    <row r="131" s="2" customFormat="1"/>
-    <row r="132" s="2" customFormat="1"/>
+        <v>32</v>
+      </c>
+      <c r="I103" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="J103" s="2" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="104" s="2" customFormat="1" spans="1:10">
+      <c r="A104" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="B104" s="2">
+        <v>10</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D104" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E104" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="F104" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G104" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="H104" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I104" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="J104" s="2" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="105" s="2" customFormat="1" spans="1:8">
+      <c r="A105" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="B105" s="2">
+        <v>100</v>
+      </c>
+      <c r="C105" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="D105" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E105" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F105" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="G105" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="H105" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="106" s="2" customFormat="1" spans="1:8">
+      <c r="A106" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="B106" s="2">
+        <v>100</v>
+      </c>
+      <c r="C106" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="D106" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E106" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F106" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="G106" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="H106" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="107" s="2" customFormat="1" spans="1:8">
+      <c r="A107" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="B107" s="2">
+        <v>100</v>
+      </c>
+      <c r="C107" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="D107" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E107" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F107" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="G107" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="H107" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="108" s="2" customFormat="1" spans="1:8">
+      <c r="A108" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="B108" s="2">
+        <v>100</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="D108" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E108" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F108" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="G108" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="H108" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="109" s="2" customFormat="1" spans="1:8">
+      <c r="A109" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="B109" s="2">
+        <v>100</v>
+      </c>
+      <c r="C109" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="D109" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E109" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F109" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="G109" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="H109" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="110" s="2" customFormat="1" spans="1:8">
+      <c r="A110" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="B110" s="2">
+        <v>100</v>
+      </c>
+      <c r="C110" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="D110" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E110" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F110" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="G110" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="H110" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="111" s="2" customFormat="1" spans="1:8">
+      <c r="A111" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="B111" s="2">
+        <v>100</v>
+      </c>
+      <c r="C111" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="D111" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E111" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F111" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="G111" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="H111" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="112" s="2" customFormat="1" spans="1:8">
+      <c r="A112" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="B112" s="2">
+        <v>100</v>
+      </c>
+      <c r="C112" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="D112" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E112" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F112" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="G112" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="H112" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="113" s="2" customFormat="1" spans="1:8">
+      <c r="A113" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="B113" s="2">
+        <v>100</v>
+      </c>
+      <c r="C113" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="D113" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E113" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F113" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="G113" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="H113" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="114" s="2" customFormat="1" spans="1:8">
+      <c r="A114" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="B114" s="2">
+        <v>100</v>
+      </c>
+      <c r="C114" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="D114" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E114" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F114" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="G114" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="H114" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="115" s="2" customFormat="1" spans="1:8">
+      <c r="A115" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="B115" s="2">
+        <v>100</v>
+      </c>
+      <c r="C115" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="D115" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E115" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F115" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="G115" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="H115" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="116" s="2" customFormat="1" spans="1:8">
+      <c r="A116" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="B116" s="2">
+        <v>100</v>
+      </c>
+      <c r="C116" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="D116" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E116" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F116" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="G116" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="H116" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="117" s="2" customFormat="1" spans="1:8">
+      <c r="A117" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="B117" s="2">
+        <v>100</v>
+      </c>
+      <c r="C117" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="D117" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E117" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F117" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="G117" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="H117" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="118" s="2" customFormat="1" spans="1:8">
+      <c r="A118" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="B118" s="2">
+        <v>100</v>
+      </c>
+      <c r="C118" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="D118" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E118" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F118" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="G118" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="H118" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="119" s="2" customFormat="1" spans="1:8">
+      <c r="A119" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="B119" s="2">
+        <v>100</v>
+      </c>
+      <c r="C119" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="D119" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E119" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F119" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="G119" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="H119" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="120" s="2" customFormat="1" spans="1:8">
+      <c r="A120" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="B120" s="2">
+        <v>100</v>
+      </c>
+      <c r="C120" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="D120" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E120" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F120" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="G120" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="H120" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="121" s="2" customFormat="1" spans="1:8">
+      <c r="A121" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="B121" s="2">
+        <v>100</v>
+      </c>
+      <c r="C121" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="D121" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E121" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F121" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="G121" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="H121" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="122" s="2" customFormat="1" spans="1:8">
+      <c r="A122" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="B122" s="2">
+        <v>100</v>
+      </c>
+      <c r="C122" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="D122" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E122" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F122" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="G122" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="H122" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="123" s="2" customFormat="1" spans="1:8">
+      <c r="A123" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="B123" s="2">
+        <v>100</v>
+      </c>
+      <c r="C123" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="D123" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E123" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F123" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="G123" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="H123" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="124" s="2" customFormat="1" spans="1:8">
+      <c r="A124" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="B124" s="2">
+        <v>100</v>
+      </c>
+      <c r="C124" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="D124" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E124" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F124" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="G124" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="H124" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="125" s="2" customFormat="1" spans="1:8">
+      <c r="A125" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="B125" s="2">
+        <v>100</v>
+      </c>
+      <c r="C125" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="D125" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E125" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F125" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="G125" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="H125" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="126" s="2" customFormat="1" spans="1:8">
+      <c r="A126" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="B126" s="2">
+        <v>100</v>
+      </c>
+      <c r="C126" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="D126" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E126" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F126" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="G126" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="H126" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="127" s="2" customFormat="1" spans="1:8">
+      <c r="A127" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="B127" s="2">
+        <v>100</v>
+      </c>
+      <c r="C127" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="D127" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E127" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F127" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="G127" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="H127" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="128" s="2" customFormat="1" spans="1:8">
+      <c r="A128" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="B128" s="2">
+        <v>100</v>
+      </c>
+      <c r="C128" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="D128" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E128" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F128" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="G128" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="H128" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="129" s="2" customFormat="1" spans="1:8">
+      <c r="A129" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="B129" s="2">
+        <v>100</v>
+      </c>
+      <c r="C129" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="D129" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E129" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F129" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="G129" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="H129" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="130" s="2" customFormat="1" spans="1:8">
+      <c r="A130" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="B130" s="2">
+        <v>100</v>
+      </c>
+      <c r="C130" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="D130" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E130" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F130" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="G130" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="H130" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="131" s="2" customFormat="1" spans="1:8">
+      <c r="A131" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="B131" s="2">
+        <v>100</v>
+      </c>
+      <c r="C131" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="D131" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E131" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F131" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="G131" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="H131" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="132" s="2" customFormat="1" spans="1:8">
+      <c r="A132" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="B132" s="2">
+        <v>100</v>
+      </c>
+      <c r="C132" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="D132" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E132" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F132" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="G132" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="H132" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
     <row r="133" s="2" customFormat="1"/>
     <row r="134" s="2" customFormat="1"/>
     <row r="135" s="2" customFormat="1"/>
@@ -4447,18 +5931,19 @@
     <row r="167" s="2" customFormat="1"/>
     <row r="168" s="2" customFormat="1"/>
     <row r="169" s="2" customFormat="1"/>
-    <row r="170" spans="1:11">
-      <c r="A170" s="2"/>
-      <c r="B170" s="2"/>
-      <c r="C170" s="2"/>
-      <c r="D170" s="2"/>
-      <c r="E170" s="2"/>
-      <c r="F170" s="2"/>
-      <c r="G170" s="2"/>
-      <c r="H170" s="2"/>
-      <c r="I170" s="2"/>
-      <c r="J170" s="2"/>
-      <c r="K170" s="2"/>
+    <row r="170" s="2" customFormat="1"/>
+    <row r="171" spans="1:11">
+      <c r="A171" s="2"/>
+      <c r="B171" s="2"/>
+      <c r="C171" s="2"/>
+      <c r="D171" s="2"/>
+      <c r="E171" s="2"/>
+      <c r="F171" s="2"/>
+      <c r="G171" s="2"/>
+      <c r="H171" s="2"/>
+      <c r="I171" s="2"/>
+      <c r="J171" s="2"/>
+      <c r="K171" s="2"/>
     </row>
   </sheetData>
   <sortState ref="A3:P180">
